--- a/forms/Form-3AA.xlsx
+++ b/forms/Form-3AA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D22EB8-160C-4A12-BDEC-2F49275C62D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E0FD8-418D-429D-860C-20ABB1D90832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -48,12 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>General information</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -145,6 +136,15 @@
   </si>
   <si>
     <t>Type of fate</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
   </si>
 </sst>
 </file>
@@ -940,6 +940,29 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -996,29 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1380,39 +1380,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1428,7 +1428,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1447,15 +1447,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="78"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="78"/>
+      <c r="F8" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="84"/>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1474,12 +1474,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>3</v>
+      <c r="F10" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1496,7 +1496,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1507,7 +1507,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="24"/>
@@ -1536,7 +1536,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -1556,12 +1556,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="20"/>
@@ -1569,12 +1569,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="93" t="s">
-        <v>32</v>
+      <c r="F19" s="75" t="s">
+        <v>29</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="20"/>
@@ -1582,7 +1582,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
@@ -1611,7 +1611,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="24"/>
@@ -1631,7 +1631,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="24"/>
@@ -1660,7 +1660,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
@@ -1679,11 +1679,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="83"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1700,7 +1700,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/ZP0LUfvdIOlH0wLjtUIz6FIvQpbLrmO5IhyZW8PPqlb/CYkk0zMkPCbFF3tavfQBewKIual/Xi6nzNbK1JbCg==" saltValue="fIox63VRh9eRQ6P3MKOKNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J1rvr4siSazJerFmZM/+oE+jMSDfPnokEujZ9/C9Nqt2uCFP324PTOTU2zdI+LoeixnTmSiV+M+wmEjC45Lz/w==" saltValue="8Xy26OKwbnH+tUSjeLpuxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1859,14 +1859,14 @@
       <c r="DD1"/>
     </row>
     <row r="2" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
       <c r="H2" s="54"/>
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
@@ -1970,115 +1970,115 @@
       <c r="DD2" s="55"/>
     </row>
     <row r="3" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="57"/>
-      <c r="I3" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="86"/>
-      <c r="BC3" s="86"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="86"/>
-      <c r="BG3" s="86"/>
-      <c r="BH3" s="86"/>
-      <c r="BI3" s="86"/>
-      <c r="BJ3" s="86"/>
-      <c r="BK3" s="86"/>
-      <c r="BL3" s="86"/>
-      <c r="BM3" s="86"/>
-      <c r="BN3" s="86"/>
-      <c r="BO3" s="86"/>
-      <c r="BP3" s="86"/>
-      <c r="BQ3" s="86"/>
-      <c r="BR3" s="86"/>
-      <c r="BS3" s="86"/>
-      <c r="BT3" s="86"/>
-      <c r="BU3" s="86"/>
-      <c r="BV3" s="86"/>
-      <c r="BW3" s="86"/>
-      <c r="BX3" s="86"/>
-      <c r="BY3" s="86"/>
-      <c r="BZ3" s="86"/>
-      <c r="CA3" s="86"/>
-      <c r="CB3" s="86"/>
-      <c r="CC3" s="86"/>
-      <c r="CD3" s="86"/>
-      <c r="CE3" s="86"/>
-      <c r="CF3" s="86"/>
-      <c r="CG3" s="86"/>
-      <c r="CH3" s="86"/>
-      <c r="CI3" s="86"/>
-      <c r="CJ3" s="86"/>
-      <c r="CK3" s="86"/>
-      <c r="CL3" s="86"/>
-      <c r="CM3" s="86"/>
-      <c r="CN3" s="86"/>
-      <c r="CO3" s="86"/>
-      <c r="CP3" s="86"/>
-      <c r="CQ3" s="86"/>
-      <c r="CR3" s="86"/>
-      <c r="CS3" s="86"/>
-      <c r="CT3" s="86"/>
-      <c r="CU3" s="86"/>
-      <c r="CV3" s="86"/>
-      <c r="CW3" s="86"/>
-      <c r="CX3" s="86"/>
-      <c r="CY3" s="86"/>
-      <c r="CZ3" s="86"/>
-      <c r="DA3" s="86"/>
-      <c r="DB3" s="86"/>
-      <c r="DC3" s="86"/>
-      <c r="DD3" s="87"/>
+      <c r="I3" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="92"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="92"/>
+      <c r="AS3" s="92"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="92"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="92"/>
+      <c r="AY3" s="92"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="92"/>
+      <c r="BB3" s="92"/>
+      <c r="BC3" s="92"/>
+      <c r="BD3" s="92"/>
+      <c r="BE3" s="92"/>
+      <c r="BF3" s="92"/>
+      <c r="BG3" s="92"/>
+      <c r="BH3" s="92"/>
+      <c r="BI3" s="92"/>
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="92"/>
+      <c r="BL3" s="92"/>
+      <c r="BM3" s="92"/>
+      <c r="BN3" s="92"/>
+      <c r="BO3" s="92"/>
+      <c r="BP3" s="92"/>
+      <c r="BQ3" s="92"/>
+      <c r="BR3" s="92"/>
+      <c r="BS3" s="92"/>
+      <c r="BT3" s="92"/>
+      <c r="BU3" s="92"/>
+      <c r="BV3" s="92"/>
+      <c r="BW3" s="92"/>
+      <c r="BX3" s="92"/>
+      <c r="BY3" s="92"/>
+      <c r="BZ3" s="92"/>
+      <c r="CA3" s="92"/>
+      <c r="CB3" s="92"/>
+      <c r="CC3" s="92"/>
+      <c r="CD3" s="92"/>
+      <c r="CE3" s="92"/>
+      <c r="CF3" s="92"/>
+      <c r="CG3" s="92"/>
+      <c r="CH3" s="92"/>
+      <c r="CI3" s="92"/>
+      <c r="CJ3" s="92"/>
+      <c r="CK3" s="92"/>
+      <c r="CL3" s="92"/>
+      <c r="CM3" s="92"/>
+      <c r="CN3" s="92"/>
+      <c r="CO3" s="92"/>
+      <c r="CP3" s="92"/>
+      <c r="CQ3" s="92"/>
+      <c r="CR3" s="92"/>
+      <c r="CS3" s="92"/>
+      <c r="CT3" s="92"/>
+      <c r="CU3" s="92"/>
+      <c r="CV3" s="92"/>
+      <c r="CW3" s="92"/>
+      <c r="CX3" s="92"/>
+      <c r="CY3" s="92"/>
+      <c r="CZ3" s="92"/>
+      <c r="DA3" s="92"/>
+      <c r="DB3" s="92"/>
+      <c r="DC3" s="92"/>
+      <c r="DD3" s="93"/>
     </row>
     <row r="4" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
@@ -2087,8 +2087,8 @@
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
-      <c r="H4" s="95" t="s">
-        <v>27</v>
+      <c r="H4" s="77" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="60"/>
       <c r="J4" s="61"/>
@@ -2198,8 +2198,8 @@
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
-      <c r="H5" s="96" t="s">
-        <v>35</v>
+      <c r="H5" s="78" t="s">
+        <v>32</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="64"/>
@@ -2303,18 +2303,18 @@
       <c r="DD5" s="65"/>
     </row>
     <row r="6" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="94" t="s">
-        <v>29</v>
+      <c r="B6" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="76" t="s">
+        <v>26</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="64"/>
@@ -2419,25 +2419,25 @@
     </row>
     <row r="7" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="F7" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="47" t="s">
+      <c r="H7" s="79" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="97" t="s">
-        <v>26</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="67"/>

--- a/forms/Form-3AA.xlsx
+++ b/forms/Form-3AA.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E0FD8-418D-429D-860C-20ABB1D90832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846B27F1-552F-4DB8-A30E-D853F5D938E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1020,6 +1020,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1365,7 +1366,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1479,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="99" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="3"/>
@@ -1700,7 +1701,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J1rvr4siSazJerFmZM/+oE+jMSDfPnokEujZ9/C9Nqt2uCFP324PTOTU2zdI+LoeixnTmSiV+M+wmEjC45Lz/w==" saltValue="8Xy26OKwbnH+tUSjeLpuxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i7VoDBOA0hBYPBa2djIdk3byIntC4Y9arvFkGXO5lFjxnPKe5gc1LTpB2ZJHyzhEP04Sm0c0FCoPYOj8U4gZPg==" saltValue="9JVA5TYxnKUdz56fD0w9cg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>

--- a/forms/Form-3AA.xlsx
+++ b/forms/Form-3AA.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846B27F1-552F-4DB8-A30E-D853F5D938E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F04C0-FF5D-455F-9A5F-452516F60E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1020,7 +1020,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1366,7 +1365,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1478,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="3"/>
